--- a/2lab7var/PSP.xlsx
+++ b/2lab7var/PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daimis/Programing/Projects/legalease/SudokuSolver/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\mokslai\ADS-2-semestrasa\2lab7var\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB573F96-14AB-A446-B86F-D39A3F849237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89322D16-EA13-42D8-981E-B3A067D0BB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="1580" windowWidth="25820" windowHeight="17440" xr2:uid="{5048ED09-7B4F-E545-8227-D7D9EE004D37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5048ED09-7B4F-E545-8227-D7D9EE004D37}"/>
   </bookViews>
   <sheets>
     <sheet name="LFF" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>STUDENTAS</t>
   </si>
@@ -89,13 +87,7 @@
     <t>Skaitymas</t>
   </si>
   <si>
-    <t>Domėjimasis apie Backtracking sprendimo metodą</t>
-  </si>
-  <si>
     <t>Kodavimas</t>
-  </si>
-  <si>
-    <t>~120 eil.</t>
   </si>
   <si>
     <t>Testavimas</t>
@@ -302,43 +294,55 @@
 Sukaupus daugiau klaidų, galima susikurti savo standartą (atkreipti dėmesį į istorinius duomenis)</t>
   </si>
   <si>
-    <t>Konsultacija su Jokūbu dėl užduoties įvygdymo</t>
-  </si>
-  <si>
-    <t>Bendravimas su Jokūbu dėl optimaliausio sprendimo būdo</t>
-  </si>
-  <si>
-    <t>~ 150 eil.</t>
-  </si>
-  <si>
-    <t>Sukurtas Main.java failas demonstruojantis funkcionalumą</t>
-  </si>
-  <si>
-    <t>Sukurti Solver.java ir SolverInterface.java su visu funkcionalumu</t>
-  </si>
-  <si>
     <t>~150 eil.</t>
   </si>
   <si>
-    <t>Pataisytos klaidos Solver.java faile</t>
-  </si>
-  <si>
     <t>~40 eil.</t>
   </si>
   <si>
-    <t>Sukurti Go.cmd ir Makefile failai ir parašytas jų funkcionalumas</t>
-  </si>
-  <si>
-    <t>Pildytas PSP ir parašytas ReadMe.md</t>
-  </si>
-  <si>
-    <t>Daimonas Jocys</t>
-  </si>
-  <si>
-    <t>dajo1354</t>
-  </si>
-  <si>
-    <t>Java</t>
+    <t>Robert Šatkevič</t>
+  </si>
+  <si>
+    <t>rosa1273</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Domėjimasis apie užduotį, jos sprendimo būdus, testavimą</t>
+  </si>
+  <si>
+    <t>Projektavimas</t>
+  </si>
+  <si>
+    <t>Sukurti direktoriją, visus reikiamus failus, paruošti testus</t>
+  </si>
+  <si>
+    <t>Sukurti pagrindinį problemos sprendimo algoritmą</t>
+  </si>
+  <si>
+    <t>Parašyti main failo funkcionalumą.</t>
+  </si>
+  <si>
+    <t>Užpildyti Go.cmd ir makefile.</t>
+  </si>
+  <si>
+    <t>Konsultacija su Aurimu dėl makefile, programos išvesties ir go.cmd</t>
+  </si>
+  <si>
+    <t>Bug'ų paieška bei taisymas.</t>
+  </si>
+  <si>
+    <t>ReadMe.md rašymas ir PSP pildymas</t>
+  </si>
+  <si>
+    <t>~20 eil.</t>
+  </si>
+  <si>
+    <t>Papildyti algoritmą ir main failą pagal reikalavimus.</t>
+  </si>
+  <si>
+    <t>~ 80 eil.</t>
   </si>
 </sst>
 </file>
@@ -346,9 +350,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,7 +395,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +432,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -567,17 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -618,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,18 +646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -689,10 +676,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,7 +692,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,7 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -743,7 +727,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -796,12 +780,51 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -821,26 +844,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -865,30 +868,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,23 +1228,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2D60EF-501B-994F-A322-BBF37383FF67}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="64"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1253,91 +1256,93 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
-        <f>DATE(2025,3,18)</f>
-        <v>45734</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D4" s="15" t="s">
+    <row r="4" spans="1:9" ht="87" customHeight="1">
+      <c r="A4" s="58">
+        <f>DATE(2025,3,27)</f>
+        <v>45743</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16">
-        <v>90</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="E4" s="10">
+        <f>IF(D4="-", C4-B4, C4-B4+D4)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87">
-        <f>DATE(2025,3,22)</f>
-        <v>45738</v>
+    <row r="5" spans="1:9" ht="48.95" customHeight="1">
+      <c r="A5" s="59">
+        <f>DATE(2025,3,28)</f>
+        <v>45744</v>
       </c>
       <c r="B5" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C5" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6">
-        <v>45</v>
+      <c r="E5" s="10">
+        <f t="shared" ref="E5:E12" si="0">IF(D5="-", C5-B5, C5-B5+D5)</f>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>14</v>
@@ -1346,198 +1351,224 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="84">
-        <f>DATE(2025,3,22)</f>
-        <v>45738</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0.53125</v>
-      </c>
-      <c r="C6" s="18">
+    <row r="6" spans="1:9" ht="45">
+      <c r="A6" s="57">
+        <f>DATE(2025,3,31)</f>
+        <v>45747</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D6" s="90">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>8.6805555555555594E-2</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="57">
+        <f t="shared" ref="A7:A12" si="1">DATE(2025,3,31)</f>
+        <v>45747</v>
+      </c>
+      <c r="B7" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="20">
-        <v>15</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="87">
-        <f>DATE(2025,3,22)</f>
-        <v>45738</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.625</v>
-      </c>
       <c r="C7" s="4">
-        <v>0.69444444444444442</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
-        <v>100</v>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="83">
-        <f>DATE(2025,3,24)</f>
-        <v>45740</v>
-      </c>
-      <c r="B8" s="23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="57">
+        <f t="shared" si="1"/>
+        <v>45747</v>
+      </c>
+      <c r="B8" s="84">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="84">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D8" s="24">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>40</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="D8" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="83">
-        <f>DATE(2025,3,24)</f>
-        <v>45740</v>
-      </c>
-      <c r="B9" s="23">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>20</v>
+      <c r="I8" s="87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45">
+      <c r="A9" s="57">
+        <f t="shared" si="1"/>
+        <v>45747</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D9" s="91">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>3.8194444444444434E-2</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60">
+      <c r="A10" s="57">
+        <f>DATE(2025,3,31)</f>
+        <v>45747</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="57">
+        <f t="shared" si="1"/>
+        <v>45747</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="57">
+        <f t="shared" si="1"/>
+        <v>45747</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.90625</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F12" s="88" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="84">
-        <f>DATE(2025,3,24)</f>
-        <v>45740</v>
-      </c>
-      <c r="B10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="20">
-        <v>40</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="G12" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="85">
-        <f>DATE(2025,3,24)</f>
-        <v>45740</v>
-      </c>
-      <c r="B11" s="11">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10">
-        <v>40</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1548,7 +1579,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1559,7 +1590,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1582,266 +1613,274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4226BA2-CFA6-654C-9FE6-FDDC2F20B0A4}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="71.1640625" customWidth="1"/>
+    <col min="4" max="4" width="71.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="34">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="60">
+        <f>DATE(2025,3,31)</f>
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="39">
+      <c r="C2" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="32"/>
+      <c r="B5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="111" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="32"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="1:5" ht="87" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="32"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:5" ht="93.95" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="32"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+    </row>
+    <row r="12" spans="1:5" ht="63.95" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="32"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="32"/>
+      <c r="B14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="32"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="32"/>
+      <c r="B16" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="72"/>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="32"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+    </row>
+    <row r="18" spans="1:5" ht="51" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="32"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="32"/>
+      <c r="B20" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="29">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="88">
-        <f>DATE(2025,3,24)</f>
-        <v>45740</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-    </row>
-    <row r="8" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-    </row>
-    <row r="10" spans="1:5" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-    </row>
-    <row r="12" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-    </row>
-    <row r="18" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="35" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="32"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+    </row>
+    <row r="22" spans="1:5" ht="72.95" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C22" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-    </row>
-    <row r="22" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="35" t="s">
+      <c r="D22" s="72"/>
+      <c r="E22" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="32"/>
+      <c r="B23" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="36">
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="31">
         <f>SUM(E6:E22)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C5:D5"/>
@@ -1854,14 +1893,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1872,214 +1903,214 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="62.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="49"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="44"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="26">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="61">
+        <f>DATE(2025,3,31)</f>
+        <v>45747</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="51"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="52"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="31">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="89">
-        <f>DATE(2025,3,24)</f>
-        <v>45740</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="57"/>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="C7" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="54">
+        <v>10</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C8" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="54"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="59">
-        <v>10</v>
-      </c>
-      <c r="B8" s="59" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="54">
+        <v>20</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="H8" s="54"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="59">
-        <v>20</v>
-      </c>
-      <c r="B9" s="59" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="54">
+        <v>30</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C10" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="54"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="59">
-        <v>30</v>
-      </c>
-      <c r="B10" s="59" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="54">
+        <v>40</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54">
+        <v>50</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="H10" s="54"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="59">
-        <v>40</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="60" t="s">
+      <c r="C12" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="55"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="59">
-        <v>50</v>
-      </c>
-      <c r="B12" s="59" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="54">
+        <v>60</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C13" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="59">
-        <v>60</v>
-      </c>
-      <c r="B13" s="59" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="54">
         <v>70</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="B14" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="59">
-        <v>70</v>
-      </c>
-      <c r="B14" s="59" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="54">
+        <v>80</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C15" s="55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="59">
-        <v>80</v>
-      </c>
-      <c r="B15" s="59" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="54">
+        <v>90</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C16" s="55" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="59">
-        <v>90</v>
-      </c>
-      <c r="B16" s="59" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="54">
+        <v>100</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C17" s="55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="59">
-        <v>100</v>
-      </c>
-      <c r="B17" s="59" t="s">
+    <row r="18" spans="1:3" ht="51">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="56" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="61" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2102,149 +2133,149 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="62">
+        <f>DATE(2025,3,31)</f>
+        <v>45747</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="90">
-        <f>DATE(2025,3,24)</f>
-        <v>45740</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="43" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="38.25">
+      <c r="A4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="D4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="E4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="F4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="G4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="H4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="41"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="41"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="41"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
